--- a/biology/Médecine/Certificat_prénuptial_en_France/Certificat_prénuptial_en_France.xlsx
+++ b/biology/Médecine/Certificat_prénuptial_en_France/Certificat_prénuptial_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Certificat_pr%C3%A9nuptial_en_France</t>
+          <t>Certificat_prénuptial_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le certificat prénuptial est, en France, un certificat médical pour le mariage civil, issu des travaux de la Fondation française pour l'étude des problèmes humains du docteur Alexis Carrel sous le régime de Vichy (loi du 16 décembre 1942). Il était exigé par les articles 63 du Code civil français et L153 du code de santé publique, mais il est supprimé depuis le 1er janvier 2008. Il est rempli par un médecin, en deux exemplaires, après deux consultations médicales séparées et des examens biologiques. Son objectif est triple : un bilan médical, la prévention obstétricale et l'information des futurs époux (grossesse, contraception, maladies sexuellement transmissibles, hygiène de vie).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Certificat_pr%C3%A9nuptial_en_France</t>
+          <t>Certificat_prénuptial_en_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Première consultation médicale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La consultation recherche toute information susceptible d'avoir une implication dans le mariage et la procréation, tant au niveau de l'interrogatoire que de l'examen clinique.
 Des examens biologiques sont prescrits : pour la femme de moins de 50 ans, groupe sanguin, rhésus, recherche d'agglutinines irrégulières (en cas de risque d'immunisation), sérologie de la toxoplasmose et sérologie de la rubéole (sauf en cas de positivité antérieure ou de négativité datant de moins de trois mois).
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Certificat_pr%C3%A9nuptial_en_France</t>
+          <t>Certificat_prénuptial_en_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Seconde consultation médicale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La seconde consultation est l'occasion de remplir et remettre le certificat médical, en main propre, à chacun des futurs époux. Une consultation de conseil génétique peut être proposée en cas d'antécédents connus de maladie génétique dans la famille.
 Le médecin ne peut pas interdire le mariage, ni alerter l'autre futur conjoint d'une anomalie qu'il aurait détectée chez son partenaire.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Certificat_pr%C3%A9nuptial_en_France</t>
+          <t>Certificat_prénuptial_en_France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,9 +596,11 @@
           <t>Suppression en 2008</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Conseil des ministres du 12 juillet 2006 a autorisé le ministre du Budget et de la Réforme de l'État Jean-François Copé à présenter une proposition de loi de simplification du droit prévoyant l'abrogation de nombreuses lois obsolètes, et envisageant notamment la suppression du certificat prénuptial. Cette  proposition de loi a été adoptée en première lecture par l'Assemblée nationale le 9 octobre 2007, et en deuxième lecture le 11 décembre 2007. Publiée au Journal Officiel le 21 décembre 2007, cette loi est entrée en vigueur le 1er janvier 2008, date depuis laquelle le certificat prénuptial est supprimé[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Conseil des ministres du 12 juillet 2006 a autorisé le ministre du Budget et de la Réforme de l'État Jean-François Copé à présenter une proposition de loi de simplification du droit prévoyant l'abrogation de nombreuses lois obsolètes, et envisageant notamment la suppression du certificat prénuptial. Cette  proposition de loi a été adoptée en première lecture par l'Assemblée nationale le 9 octobre 2007, et en deuxième lecture le 11 décembre 2007. Publiée au Journal Officiel le 21 décembre 2007, cette loi est entrée en vigueur le 1er janvier 2008, date depuis laquelle le certificat prénuptial est supprimé.
 Il concernait tous les ans 270 000 couples et le coût des consultations médicales pour la sécurité sociale était de 14 millions d'euros (chiffre de 2007).
 </t>
         </is>
